--- a/biology/Médecine/Métabolisme_du_sélénium/Métabolisme_du_sélénium.xlsx
+++ b/biology/Médecine/Métabolisme_du_sélénium/Métabolisme_du_sélénium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolisme_du_s%C3%A9l%C3%A9nium</t>
+          <t>Métabolisme_du_sélénium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le métabolisme du sélénium chez l’humain est caractéristique de celui d’un oligo-élément. Les besoins journaliers sont limités, avec un apport recommandé d’au moins 40 μg j−1 et d’au plus 400 μg j−1. En deçà de 11 μg j−1, le risque de carence est important ; aux fortes doses (&gt;  600 μg j−1) l'élément est toxique (sélénose)[1]. La forte carence provoque la maladie de Keshan et est l’un des facteurs associés à la maladie de Kashin-Beck et au crétinisme myxœdémateux[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le métabolisme du sélénium chez l’humain est caractéristique de celui d’un oligo-élément. Les besoins journaliers sont limités, avec un apport recommandé d’au moins 40 μg j−1 et d’au plus 400 μg j−1. En deçà de 11 μg j−1, le risque de carence est important ; aux fortes doses (&gt;  600 μg j−1) l'élément est toxique (sélénose). La forte carence provoque la maladie de Keshan et est l’un des facteurs associés à la maladie de Kashin-Beck et au crétinisme myxœdémateux.
 Les principales sources de sélénium sont les viandes, poissons, céréales et noix du Brésil. Dans les régions où le sol est à faible teneur en sélénium (Keshan en Chine, Nouvelle-Zélande), un régime équilibré ne suffit pas à couvrir les besoins.  L'élimination est principalement effectuée par voie urinaire.[réf. nécessaire]
 </t>
         </is>
